--- a/output.xlsx
+++ b/output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="USW" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>10YR EQ</t>
   </si>
@@ -34,6 +34,61 @@
   <si>
     <t>DateTime</t>
   </si>
+  <si>
+    <t>高亮为MS估计数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/21/2016 01:00</t>
+  </si>
+  <si>
+    <t>10/26/2016 01:00</t>
+  </si>
+  <si>
+    <t>10/26/2016 23:30</t>
+  </si>
+  <si>
+    <t>10/27/2016 01:00</t>
+  </si>
+  <si>
+    <t>10/28/2016 01:00</t>
+  </si>
+  <si>
+    <t>10/06/2016 11:45</t>
+  </si>
+  <si>
+    <t>10/12/2016 11:45</t>
+  </si>
+  <si>
+    <t>10/14/2016 11:45</t>
+  </si>
+  <si>
+    <t>10/18/2016 11:35</t>
+  </si>
+  <si>
+    <t>10/25/2016 11:45</t>
+  </si>
+  <si>
+    <t>10/27/2016 11:45</t>
+  </si>
+  <si>
+    <t>10/05/2016 17:30</t>
+  </si>
+  <si>
+    <t>10/19/2016 17:30</t>
+  </si>
+  <si>
+    <t>10/26/2016 17:30</t>
+  </si>
+  <si>
+    <t>10/04/2016 17:30</t>
+  </si>
+  <si>
+    <t>10/06/2016 17:30</t>
+  </si>
+  <si>
+    <t>10/12/2016 17:30</t>
+  </si>
 </sst>
 </file>
 
@@ -42,7 +97,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -75,15 +130,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,6 +167,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -113,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -121,11 +191,31 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B582"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A563" sqref="A1:B582"/>
+    <sheetView topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="D577" sqref="D577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5060,7 +5150,7 @@
         <v>42643</v>
       </c>
       <c r="B578">
-        <v>0</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.15">
@@ -5076,7 +5166,7 @@
         <v>42657</v>
       </c>
       <c r="B580">
-        <v>0</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.15">
@@ -5084,7 +5174,7 @@
         <v>42664</v>
       </c>
       <c r="B581">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.15">
@@ -5092,7 +5182,7 @@
         <v>42671</v>
       </c>
       <c r="B582">
-        <v>0</v>
+        <v>44.8</v>
       </c>
     </row>
   </sheetData>
@@ -5106,8 +5196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="F555" sqref="F555"/>
+    <sheetView topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="A589" sqref="A589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9736,7 +9826,7 @@
         <v>42643</v>
       </c>
       <c r="B578">
-        <v>0</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.15">
@@ -9744,7 +9834,7 @@
         <v>42650</v>
       </c>
       <c r="B579">
-        <v>0</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.15">
@@ -9752,7 +9842,7 @@
         <v>42657</v>
       </c>
       <c r="B580">
-        <v>0</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.15">
@@ -9760,7 +9850,7 @@
         <v>42664</v>
       </c>
       <c r="B581">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.15">
@@ -9768,7 +9858,7 @@
         <v>42671</v>
       </c>
       <c r="B582">
-        <v>0</v>
+        <v>2660</v>
       </c>
     </row>
   </sheetData>
@@ -9781,8 +9871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B582"/>
   <sheetViews>
-    <sheetView topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="A547" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="A586" sqref="A586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14420,7 +14510,7 @@
         <v>42650</v>
       </c>
       <c r="B579" s="5">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.15">
@@ -14428,7 +14518,7 @@
         <v>42657</v>
       </c>
       <c r="B580" s="5">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.15">
@@ -14436,7 +14526,7 @@
         <v>42664</v>
       </c>
       <c r="B581" s="5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.15">
@@ -14457,8 +14547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B582"/>
   <sheetViews>
-    <sheetView topLeftCell="A553" workbookViewId="0">
-      <selection activeCell="C568" sqref="C568"/>
+    <sheetView tabSelected="1" topLeftCell="A553" workbookViewId="0">
+      <selection activeCell="E565" sqref="E565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19095,7 +19185,7 @@
         <v>42650</v>
       </c>
       <c r="B579">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.15">
@@ -19111,7 +19201,7 @@
         <v>42664</v>
       </c>
       <c r="B581">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.15">
@@ -19119,7 +19209,7 @@
         <v>42671</v>
       </c>
       <c r="B582">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -19130,13 +19220,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F820"/>
+  <dimension ref="A1:F832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B803" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E832" sqref="E832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -19151,6 +19247,10 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F1">
+        <f>SUM(D:D)</f>
+        <v>13369.000000000036</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
@@ -19165,10 +19265,6 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <f>SUM(D:D)</f>
-        <v>13201.600000000033</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -30566,7 +30662,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A817" s="2">
         <v>42626.041666666701</v>
       </c>
@@ -30580,7 +30676,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A818" s="2">
         <v>42626.041666666701</v>
       </c>
@@ -30594,7 +30690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A819" s="2">
         <v>42627.041666666701</v>
       </c>
@@ -30608,32 +30704,231 @@
         <v>36</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A820" s="2">
         <v>42636.041666666701</v>
       </c>
-      <c r="B820">
+      <c r="B820" s="6">
         <v>11</v>
       </c>
-      <c r="C820">
+      <c r="C820" s="6">
         <v>10</v>
       </c>
-      <c r="D820">
+      <c r="D820" s="6">
         <v>11</v>
+      </c>
+      <c r="F820" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A821" s="2">
+        <v>42640.041666666664</v>
+      </c>
+      <c r="B821" s="7">
+        <v>26</v>
+      </c>
+      <c r="C821" s="7">
+        <v>2</v>
+      </c>
+      <c r="D821">
+        <f>C821/10*B821</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A822" s="2">
+        <v>42641.041666666664</v>
+      </c>
+      <c r="B822" s="7">
+        <v>34</v>
+      </c>
+      <c r="C822" s="7">
+        <v>5</v>
+      </c>
+      <c r="D822">
+        <f t="shared" ref="D822:D832" si="0">C822/10*B822</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A823" s="2">
+        <v>42641.979166666664</v>
+      </c>
+      <c r="B823" s="7">
+        <v>13</v>
+      </c>
+      <c r="C823" s="7">
+        <v>2</v>
+      </c>
+      <c r="D823">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A824" s="2">
+        <v>42642.979166666664</v>
+      </c>
+      <c r="B824" s="7">
+        <v>28</v>
+      </c>
+      <c r="C824" s="7">
+        <v>7</v>
+      </c>
+      <c r="D824">
+        <f t="shared" si="0"/>
+        <v>19.599999999999998</v>
+      </c>
+      <c r="E824">
+        <f>SUM(D821:D824)</f>
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A825" s="2">
+        <v>42656.041666666664</v>
+      </c>
+      <c r="B825" s="8">
+        <v>24</v>
+      </c>
+      <c r="C825" s="7">
+        <v>3</v>
+      </c>
+      <c r="D825">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A826" s="2">
+        <v>42656.041666666664</v>
+      </c>
+      <c r="B826" s="8">
+        <v>20</v>
+      </c>
+      <c r="C826" s="7">
+        <v>10</v>
+      </c>
+      <c r="D826">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A827" s="2">
+        <v>42657.041666666664</v>
+      </c>
+      <c r="B827" s="8">
+        <v>12</v>
+      </c>
+      <c r="C827" s="7">
+        <v>30</v>
+      </c>
+      <c r="D827">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E827">
+        <f>SUM(D825:D827)</f>
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A828" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B828" s="8">
+        <v>5</v>
+      </c>
+      <c r="C828" s="7">
+        <v>30</v>
+      </c>
+      <c r="D828">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E828">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A829" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B829" s="9">
+        <v>26</v>
+      </c>
+      <c r="C829" s="7">
+        <v>2</v>
+      </c>
+      <c r="D829">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A830" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B830" s="9">
+        <v>15</v>
+      </c>
+      <c r="C830" s="7">
+        <v>2</v>
+      </c>
+      <c r="D830">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A831" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B831" s="9">
+        <v>34</v>
+      </c>
+      <c r="C831" s="7">
+        <v>5</v>
+      </c>
+      <c r="D831" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A832" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B832" s="9">
+        <v>28</v>
+      </c>
+      <c r="C832" s="7">
+        <v>7</v>
+      </c>
+      <c r="D832" s="10">
+        <f t="shared" si="0"/>
+        <v>19.599999999999998</v>
+      </c>
+      <c r="E832">
+        <f>SUM(D829:D832)</f>
+        <v>44.8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D991"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A956" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A974" workbookViewId="0">
+      <selection activeCell="B1006" sqref="B1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -44305,7 +44600,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A977" s="2">
         <v>42571.489583333299</v>
       </c>
@@ -44319,7 +44614,7 @@
         <v>2198.1999999999998</v>
       </c>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A978" s="2">
         <v>42577.489583333299</v>
       </c>
@@ -44333,7 +44628,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A979" s="2">
         <v>42579.489583333299</v>
       </c>
@@ -44347,7 +44642,7 @@
         <v>459.98</v>
       </c>
     </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A980" s="2">
         <v>42584.489583333299</v>
       </c>
@@ -44361,7 +44656,7 @@
         <v>2399.8000000000002</v>
       </c>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A981" s="2">
         <v>42586.489583333299</v>
       </c>
@@ -44375,7 +44670,7 @@
         <v>399.9</v>
       </c>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A982" s="2">
         <v>42591.489583333299</v>
       </c>
@@ -44389,7 +44684,7 @@
         <v>2398.8000000000002</v>
       </c>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A983" s="2">
         <v>42599.482638888898</v>
       </c>
@@ -44403,7 +44698,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A984" s="2">
         <v>42600.489583333299</v>
       </c>
@@ -44417,7 +44712,7 @@
         <v>1199.55</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A985" s="2">
         <v>42605.489583333299</v>
       </c>
@@ -44431,7 +44726,7 @@
         <v>2198.4</v>
       </c>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A986" s="2">
         <v>42612.489583333299</v>
       </c>
@@ -44445,7 +44740,7 @@
         <v>459.82</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A987" s="2">
         <v>42614.489583333299</v>
       </c>
@@ -44459,7 +44754,7 @@
         <v>2399.1</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A988" s="2">
         <v>42619.489583333299</v>
       </c>
@@ -44473,7 +44768,7 @@
         <v>2398.5</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A989" s="2">
         <v>42621.489583333299</v>
       </c>
@@ -44487,7 +44782,7 @@
         <v>1199.5999999999999</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A990" s="2">
         <v>42626.489583333299</v>
       </c>
@@ -44501,18 +44796,172 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A991" s="2">
         <v>42627.482638888898</v>
       </c>
-      <c r="B991">
+      <c r="B991" s="6">
         <v>2500</v>
       </c>
-      <c r="C991">
+      <c r="C991" s="6">
         <v>1</v>
       </c>
-      <c r="D991">
+      <c r="D991" s="6">
         <v>250</v>
+      </c>
+      <c r="F991" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A992" s="2">
+        <v>42640.482638888891</v>
+      </c>
+      <c r="B992" s="7">
+        <v>500</v>
+      </c>
+      <c r="C992" s="7">
+        <v>40</v>
+      </c>
+      <c r="D992">
+        <f>C992/10*B992</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A993" s="2">
+        <v>42642.489583333336</v>
+      </c>
+      <c r="B993" s="7">
+        <v>2300</v>
+      </c>
+      <c r="C993" s="7">
+        <v>2</v>
+      </c>
+      <c r="D993" s="12">
+        <f t="shared" ref="D993:D1000" si="0">C993/10*B993</f>
+        <v>460</v>
+      </c>
+      <c r="E993">
+        <f>D992+D993</f>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A994" s="2">
+        <v>42647.489583333336</v>
+      </c>
+      <c r="B994" s="9">
+        <v>2400</v>
+      </c>
+      <c r="C994" s="7">
+        <v>10</v>
+      </c>
+      <c r="D994" s="12">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A995" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B995" s="9">
+        <v>400</v>
+      </c>
+      <c r="C995" s="7">
+        <v>10</v>
+      </c>
+      <c r="D995" s="12">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E995">
+        <f>D995+D994</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A996" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B996" s="9">
+        <v>800</v>
+      </c>
+      <c r="C996" s="7">
+        <v>30</v>
+      </c>
+      <c r="D996" s="12">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A997" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B997" s="9">
+        <v>2400</v>
+      </c>
+      <c r="C997" s="7">
+        <v>5</v>
+      </c>
+      <c r="D997" s="12">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="E997">
+        <f>D997+D996</f>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A998" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B998" s="9">
+        <v>500</v>
+      </c>
+      <c r="C998" s="7">
+        <v>1</v>
+      </c>
+      <c r="D998" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A999" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B999" s="9">
+        <v>1100</v>
+      </c>
+      <c r="C999" s="7">
+        <v>20</v>
+      </c>
+      <c r="D999" s="12">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1000" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1000" s="9">
+        <v>2300</v>
+      </c>
+      <c r="C1000" s="7">
+        <v>2</v>
+      </c>
+      <c r="D1000" s="12">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="E1000">
+        <f>D1000+D999</f>
+        <v>2660</v>
       </c>
     </row>
   </sheetData>
@@ -44523,11 +44972,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D436"/>
+  <dimension ref="A1:E440"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A419" workbookViewId="0">
+      <selection activeCell="E439" sqref="E439"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -50577,7 +51031,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A433" s="2">
         <v>42619.729166666701</v>
       </c>
@@ -50591,7 +51045,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A434" s="2">
         <v>42627.729166666701</v>
       </c>
@@ -50605,7 +51059,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A435" s="2">
         <v>42633.729166666701</v>
       </c>
@@ -50619,18 +51073,82 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A436" s="2">
         <v>42640.729166666701</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="6">
         <v>0.4</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="6">
         <v>36</v>
       </c>
-      <c r="D436">
+      <c r="D436" s="6">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A437" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B437" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="C437" s="7">
+        <v>6</v>
+      </c>
+      <c r="D437">
+        <f>C437/10*B437</f>
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A438" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B438" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="C438" s="7">
+        <v>30</v>
+      </c>
+      <c r="D438" s="16">
+        <f t="shared" ref="D438:D440" si="0">C438/10*B438</f>
+        <v>6.75</v>
+      </c>
+      <c r="E438">
+        <f>D438+D437</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A439" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B439" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="C439" s="7">
+        <v>20</v>
+      </c>
+      <c r="D439" s="16">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A440" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B440" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="C440" s="7">
+        <v>10</v>
+      </c>
+      <c r="D440" s="16">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -50641,11 +51159,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:D372"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="D371" sqref="D371"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -55799,18 +56322,63 @@
         <v>1.6145</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A369" s="2">
         <v>42641.729166666701</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="6">
         <v>4</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="6">
         <v>2</v>
       </c>
-      <c r="D369">
+      <c r="D369" s="6">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A370" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B370" s="7">
+        <v>4</v>
+      </c>
+      <c r="C370" s="7">
+        <v>10</v>
+      </c>
+      <c r="D370" s="14">
+        <f t="shared" ref="D370:D372" si="0">C370/10*B370</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A371" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B371" s="7">
+        <v>1</v>
+      </c>
+      <c r="C371" s="7">
+        <v>30</v>
+      </c>
+      <c r="D371" s="14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A372" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B372" s="7">
+        <v>3</v>
+      </c>
+      <c r="C372" s="7">
+        <v>5</v>
+      </c>
+      <c r="D372" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
